--- a/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Tristan Albatross_Gough.xlsx
+++ b/metadata_files/06_metadata_phenology/02_metadata_monthly_datatypes/Tristan Albatross_Gough.xlsx
@@ -3837,13 +3837,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7A939AF-66D7-43A6-8DBB-BD499187AA1F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{639A9E5D-FE68-40CC-888C-4EC4D7CD266B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0FF537A9-1339-4879-92E1-A35454F42490}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{82E7ACBF-D49D-4D34-8CDB-92A26F650BD1}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D7943D06-8EBE-4C92-B32D-E8AFE497F694}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E1808B9-4782-4835-8DA4-3B58279F4275}"/>
 </file>